--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
@@ -534,22 +534,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H2">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N2">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q2">
-        <v>0.6225692989922222</v>
+        <v>0.01595715795188889</v>
       </c>
       <c r="R2">
-        <v>5.60312369093</v>
+        <v>0.143614421567</v>
       </c>
       <c r="S2">
-        <v>0.09039174971209304</v>
+        <v>0.001583869831343645</v>
       </c>
       <c r="T2">
-        <v>0.09039174971209304</v>
+        <v>0.001583869831343645</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H3">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I3">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J3">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N3">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O3">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P3">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q3">
-        <v>0.7179097265827776</v>
+        <v>0.02081251029055555</v>
       </c>
       <c r="R3">
-        <v>6.461187539245</v>
+        <v>0.187312592615</v>
       </c>
       <c r="S3">
-        <v>0.1042343662403409</v>
+        <v>0.002065800643393271</v>
       </c>
       <c r="T3">
-        <v>0.1042343662403409</v>
+        <v>0.002065800643393271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>14.500353</v>
       </c>
       <c r="I4">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J4">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N4">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O4">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P4">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q4">
-        <v>1.366129812940667</v>
+        <v>0.4332206019796667</v>
       </c>
       <c r="R4">
-        <v>12.295168316466</v>
+        <v>3.898985417817</v>
       </c>
       <c r="S4">
-        <v>0.1983503913949088</v>
+        <v>0.0430004543328409</v>
       </c>
       <c r="T4">
-        <v>0.1983503913949088</v>
+        <v>0.04300045433284089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>14.500353</v>
       </c>
       <c r="I5">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J5">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N5">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O5">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P5">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q5">
-        <v>1.575339294874333</v>
+        <v>0.5650384776516667</v>
       </c>
       <c r="R5">
-        <v>14.178053653869</v>
+        <v>5.085346298865</v>
       </c>
       <c r="S5">
-        <v>0.2287258229475991</v>
+        <v>0.05608438551520877</v>
       </c>
       <c r="T5">
-        <v>0.2287258229475991</v>
+        <v>0.05608438551520876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H6">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I6">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J6">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N6">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O6">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P6">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q6">
-        <v>0.2916172400264445</v>
+        <v>3.19370489749</v>
       </c>
       <c r="R6">
-        <v>2.624555160238</v>
+        <v>28.74334407741</v>
       </c>
       <c r="S6">
-        <v>0.04234033482677571</v>
+        <v>0.316999609366534</v>
       </c>
       <c r="T6">
-        <v>0.04234033482677571</v>
+        <v>0.316999609366534</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H7">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I7">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J7">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N7">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O7">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P7">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q7">
-        <v>0.3362755815185555</v>
+        <v>4.16546707405</v>
       </c>
       <c r="R7">
-        <v>3.026480233667</v>
+        <v>37.48920366645</v>
       </c>
       <c r="S7">
-        <v>0.04882434493335585</v>
+        <v>0.4134544291618115</v>
       </c>
       <c r="T7">
-        <v>0.04882434493335586</v>
+        <v>0.4134544291618115</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H8">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I8">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J8">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N8">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O8">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P8">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q8">
-        <v>0.1192691795877778</v>
+        <v>0.04949302390844445</v>
       </c>
       <c r="R8">
-        <v>1.07342261629</v>
+        <v>0.445437215176</v>
       </c>
       <c r="S8">
-        <v>0.017316867129678</v>
+        <v>0.004912560724591664</v>
       </c>
       <c r="T8">
-        <v>0.017316867129678</v>
+        <v>0.004912560724591663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H9">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I9">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J9">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N9">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O9">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P9">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q9">
-        <v>0.1375340933872222</v>
+        <v>0.06455247685777779</v>
       </c>
       <c r="R9">
-        <v>1.237806840485</v>
+        <v>0.58097229172</v>
       </c>
       <c r="S9">
-        <v>0.01996877675539335</v>
+        <v>0.006407326476419339</v>
       </c>
       <c r="T9">
-        <v>0.01996877675539336</v>
+        <v>0.006407326476419339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H10">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I10">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J10">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N10">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O10">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P10">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q10">
-        <v>0.7992107653711111</v>
+        <v>0.6798431429021111</v>
       </c>
       <c r="R10">
-        <v>7.192896888340001</v>
+        <v>6.118588286119</v>
       </c>
       <c r="S10">
-        <v>0.1160385833152661</v>
+        <v>0.06747962559091164</v>
       </c>
       <c r="T10">
-        <v>0.1160385833152661</v>
+        <v>0.06747962559091163</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H11">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I11">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J11">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N11">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O11">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P11">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q11">
-        <v>0.9216021139788888</v>
+        <v>0.8867019083394445</v>
       </c>
       <c r="R11">
-        <v>8.294419025810001</v>
+        <v>7.980317175055</v>
       </c>
       <c r="S11">
-        <v>0.1338087627445893</v>
+        <v>0.08801193835694532</v>
       </c>
       <c r="T11">
-        <v>0.1338087627445894</v>
+        <v>0.0880119383569453</v>
       </c>
     </row>
   </sheetData>
